--- a/backend/excel_templates/findings-uniform-guidance-template.xlsx
+++ b/backend/excel_templates/findings-uniform-guidance-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="257F4B430735" lockStructure="1"/>
+  <workbookProtection workbookPassword="8A1F49337C5" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -51497,7 +51497,7 @@
       <c r="O2999" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="257F4B430735"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="8A1F49337C5"/>
   <mergeCells count="2">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="C2:O2"/>

--- a/backend/excel_templates/findings-uniform-guidance-template.xlsx
+++ b/backend/excel_templates/findings-uniform-guidance-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="8A1F49337C5" lockStructure="1"/>
+  <workbookProtection workbookPassword="42CC4260EECC" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -51497,7 +51497,7 @@
       <c r="O2999" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="8A1F49337C5"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="42CC4260EECC"/>
   <mergeCells count="2">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="C2:O2"/>

--- a/backend/excel_templates/findings-uniform-guidance-template.xlsx
+++ b/backend/excel_templates/findings-uniform-guidance-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="42CC4260EECC" lockStructure="1"/>
+  <workbookProtection workbookPassword="2833A5417BD9" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -51497,7 +51497,7 @@
       <c r="O2999" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="42CC4260EECC"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="2833A5417BD9"/>
   <mergeCells count="2">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="C2:O2"/>

--- a/backend/excel_templates/findings-uniform-guidance-template.xlsx
+++ b/backend/excel_templates/findings-uniform-guidance-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="2833A5417BD9" lockStructure="1"/>
+  <workbookProtection workbookPassword="108FAD3997BE6" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="repeat_prior_reference">'Form'!$M$4:$M$3000</definedName>
     <definedName name="prior_references">'Form'!$N$4:$N$3000</definedName>
     <definedName name="is_valid">'Form'!$O$4:$O$3000</definedName>
-    <definedName name="auditee_ein">'Form'!$B$2</definedName>
+    <definedName name="auditee_uei">'Form'!$B$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -51497,12 +51497,12 @@
       <c r="O2999" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="2833A5417BD9"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="108FAD3997BE6"/>
   <mergeCells count="2">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="C2:O2"/>
   </mergeCells>
-  <dataValidations count="12">
+  <dataValidations count="13">
     <dataValidation sqref="A4:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Unknown ALN Prefix" error="The Federal Agency Prefix you entered is not recognized" type="list">
       <formula1>"1,2,3,4,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,27,29,30,32,33,34,36,39,40,41,42,43,44,45,46,47,53,57,58,59,60,61,62,64,66,68,70,77,78,81,82,83,84,85,86,87,88,89,90,91,92,93,94,96,97,98"</formula1>
     </dataValidation>
@@ -51539,6 +51539,9 @@
     <dataValidation sqref="O4:O3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Y/N" error="Must be 'Y' or 'N'" type="list">
       <formula1>"Y,N"</formula1>
     </dataValidation>
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="Must be length of 12" error="Expecting something with only twelve characters" type="textLength" operator="equal">
+      <formula1>12</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/excel_templates/findings-uniform-guidance-template.xlsx
+++ b/backend/excel_templates/findings-uniform-guidance-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="108FAD3997BE6" lockStructure="1"/>
+  <workbookProtection workbookPassword="10C841849C163" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -51497,7 +51497,7 @@
       <c r="O2999" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="108FAD3997BE6"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="10C841849C163"/>
   <mergeCells count="2">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="C2:O2"/>

--- a/backend/excel_templates/findings-uniform-guidance-template.xlsx
+++ b/backend/excel_templates/findings-uniform-guidance-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection workbookPassword="10C841849C163" lockStructure="1"/>
+  <workbookProtection workbookPassword="A40B62A5CBD4" lockStructure="1"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -51497,12 +51497,12 @@
       <c r="O2999" s="3" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="10C841849C163"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="A40B62A5CBD4"/>
   <mergeCells count="2">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="C2:O2"/>
   </mergeCells>
-  <dataValidations count="13">
+  <dataValidations count="20">
     <dataValidation sqref="A4:A3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Unknown ALN Prefix" error="The Federal Agency Prefix you entered is not recognized" type="list">
       <formula1>"1,2,3,4,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,27,29,30,32,33,34,36,39,40,41,42,43,44,45,46,47,53,57,58,59,60,61,62,64,66,68,70,77,78,81,82,83,84,85,86,87,88,89,90,91,92,93,94,96,97,98"</formula1>
     </dataValidation>
@@ -51512,22 +51512,43 @@
     <dataValidation sqref="E4:E3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" errorTitle="Reference number" error="Expecting a value in the format YYYY-NNN, where YYYY is a year and NNN a three digit number (e.g. 2023-001)" type="custom">
       <formula1>=OR(ISBLANK($E4), AND(LEN($E4) = 8, LEFT($E4, 2) = "20", ISNUMBER(MID($E4, 3, 2) * 1), MID($E4, 5, 1) = "-", ISNUMBER(RIGHT($E4, 3) * 1)))</formula1>
     </dataValidation>
+    <dataValidation sqref="G4:G3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must by Y or N" error="Entries must be Y or N in this column" type="list">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
     <dataValidation sqref="G4:G3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Y/N" error="Must be 'Y' or 'N'" type="list">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H4:H3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must by Y or N" error="Entries must be Y or N in this column" type="list">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation sqref="H4:H3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Y/N" error="Must be 'Y' or 'N'" type="list">
       <formula1>"Y,N"</formula1>
     </dataValidation>
+    <dataValidation sqref="I4:I3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must by Y or N" error="Entries must be Y or N in this column" type="list">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
     <dataValidation sqref="I4:I3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Y/N" error="Must be 'Y' or 'N'" type="list">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J4:J3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must by Y or N" error="Entries must be Y or N in this column" type="list">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation sqref="J4:J3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Y/N" error="Must be 'Y' or 'N'" type="list">
       <formula1>"Y,N"</formula1>
     </dataValidation>
+    <dataValidation sqref="K4:K3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must by Y or N" error="Entries must be Y or N in this column" type="list">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
     <dataValidation sqref="K4:K3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Y/N" error="Must be 'Y' or 'N'" type="list">
       <formula1>"Y,N"</formula1>
     </dataValidation>
+    <dataValidation sqref="L4:L3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must by Y or N" error="Entries must be Y or N in this column" type="list">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
     <dataValidation sqref="L4:L3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Y/N" error="Must be 'Y' or 'N'" type="list">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation sqref="M4:M3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Must by Y or N" error="Entries must be Y or N in this column" type="list">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation sqref="M4:M3000" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="Y/N" error="Must be 'Y' or 'N'" type="list">
